--- a/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43FF8077-5C0C-4472-837A-CAA40F8F3A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C486E006-EB2B-4D84-B5B7-71258647B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{812E5B4C-2C2D-42BB-814A-EC1C900BA198}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37683025-BA01-4396-8D2A-144B2E5FD32B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="222">
   <si>
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>96,58%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -128,7 +128,7 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -149,7 +149,7 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -317,7 +317,7 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>Hogares según si tienen problemas de temperatura en la vivienda en 2015 (Tasa respuesta: 75,96%)</t>
+    <t>Hogares según si tienen problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 75,96%)</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -398,319 +398,313 @@
     <t>15,59%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>23,05%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
   </si>
   <si>
     <t>84,41%</t>
   </si>
   <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>76,95%</t>
+    <t>79,41%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>44,93%</t>
   </si>
   <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>43,24%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
   </si>
   <si>
     <t>58,05%</t>
   </si>
   <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
   </si>
   <si>
     <t>56,76%</t>
   </si>
   <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>38,51%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>61,49%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>66,08%</t>
   </si>
   <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
   </si>
   <si>
     <t>52,21%</t>
   </si>
   <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>58,9%</t>
   </si>
   <si>
     <t>50,04%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>45,84%</t>
   </si>
   <si>
     <t>40,52%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>58,01%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>54,16%</t>
   </si>
   <si>
     <t>59,48%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45DC181-066A-4D5B-995A-487109883B18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08D7886-97A4-46EF-9247-7636D9DF4D8C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2185,7 +2179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6466CBDD-9797-4D87-A20D-1897DB55B3C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE196B7-291E-48A0-A011-34C052DC95BE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3248,7 +3242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650CA1E0-89AE-4AF1-94BB-ACCE8481B822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99FE7C-39D7-4FA7-8B1A-FF1F5143588E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4311,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170020E-412A-4840-83A5-8F0CA192BB11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA8DB4-26A3-430C-822B-4F730BE9E7F4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5228,10 +5222,10 @@
         <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>746</v>
@@ -5240,13 +5234,13 @@
         <v>558220</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,13 +5255,13 @@
         <v>440619</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>574</v>
@@ -5276,13 +5270,13 @@
         <v>378657</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>1172</v>
@@ -5291,13 +5285,13 @@
         <v>819275</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C486E006-EB2B-4D84-B5B7-71258647B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E949F5E3-3D5F-4E7C-B426-A72751A71392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37683025-BA01-4396-8D2A-144B2E5FD32B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{3983EF81-DB84-4196-BF4F-C87FC52B1D86}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="189">
   <si>
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,13 +80,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,78 +95,57 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,85%</t>
+    <t>98,75%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>0,46%</t>
   </si>
   <si>
+    <t>99,05%</t>
+  </si>
+  <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
+    <t>98,92%</t>
+  </si>
+  <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
     <t>99,45%</t>
   </si>
   <si>
@@ -185,21 +164,21 @@
     <t>99,57%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>99,74%</t>
+  </si>
+  <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
@@ -209,162 +188,132 @@
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 69,37%)</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
+    <t>99,04%</t>
+  </si>
+  <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
+    <t>98,84%</t>
+  </si>
+  <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
     <t>99,44%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>99,72%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 75,96%)</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>99,22%</t>
+  </si>
+  <si>
     <t>99,27%</t>
   </si>
   <si>
-    <t>99,22%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
@@ -395,316 +344,268 @@
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>47,03%</t>
   </si>
   <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1017,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E08D7886-97A4-46EF-9247-7636D9DF4D8C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2141A6A4-A981-432F-BC0B-3F9FF4C02878}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1285,10 +1186,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D5" s="7">
-        <v>23708</v>
+        <v>105209</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1300,10 +1201,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I5" s="7">
-        <v>19009</v>
+        <v>118289</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1315,10 +1216,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="N5" s="7">
-        <v>42717</v>
+        <v>223499</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1336,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D6" s="7">
-        <v>23708</v>
+        <v>105209</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1351,10 +1252,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I6" s="7">
-        <v>19009</v>
+        <v>118289</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1366,10 +1267,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="N6" s="7">
-        <v>42717</v>
+        <v>223499</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1440,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="D8" s="7">
-        <v>94581</v>
+        <v>124965</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1455,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="I8" s="7">
-        <v>86201</v>
+        <v>140742</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1470,10 +1371,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>269</v>
+        <v>417</v>
       </c>
       <c r="N8" s="7">
-        <v>180782</v>
+        <v>265707</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1491,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="D9" s="7">
-        <v>94581</v>
+        <v>124965</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1506,10 +1407,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="I9" s="7">
-        <v>86201</v>
+        <v>140742</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1521,10 +1422,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>269</v>
+        <v>417</v>
       </c>
       <c r="N9" s="7">
-        <v>180782</v>
+        <v>265707</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1595,10 +1496,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="D11" s="7">
-        <v>140742</v>
+        <v>107848</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1610,10 +1511,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I11" s="7">
-        <v>124965</v>
+        <v>112573</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1625,10 +1526,10 @@
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="N11" s="7">
-        <v>265707</v>
+        <v>220420</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1646,10 +1547,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="D12" s="7">
-        <v>140742</v>
+        <v>107848</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1661,10 +1562,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I12" s="7">
-        <v>124965</v>
+        <v>112573</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1676,10 +1577,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="N12" s="7">
-        <v>265707</v>
+        <v>220420</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1711,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1726,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1741,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,46 +1651,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D14" s="7">
-        <v>112573</v>
+        <v>165336</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="I14" s="7">
-        <v>107848</v>
+        <v>156946</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="N14" s="7">
-        <v>220420</v>
+        <v>322282</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1801,10 +1702,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7">
-        <v>112573</v>
+        <v>165336</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1816,10 +1717,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7">
-        <v>107848</v>
+        <v>156946</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1831,10 +1732,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="N15" s="7">
-        <v>220420</v>
+        <v>322282</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1848,7 +1749,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1866,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1881,7 +1782,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1896,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,46 +1806,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>231</v>
+        <v>746</v>
       </c>
       <c r="D17" s="7">
-        <v>156946</v>
+        <v>503359</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>216</v>
+        <v>792</v>
       </c>
       <c r="I17" s="7">
-        <v>165336</v>
+        <v>528549</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>447</v>
+        <v>1538</v>
       </c>
       <c r="N17" s="7">
-        <v>322282</v>
+        <v>1031908</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1956,10 +1857,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>231</v>
+        <v>746</v>
       </c>
       <c r="D18" s="7">
-        <v>156946</v>
+        <v>503359</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1971,10 +1872,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>216</v>
+        <v>792</v>
       </c>
       <c r="I18" s="7">
-        <v>165336</v>
+        <v>528549</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1986,10 +1887,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>447</v>
+        <v>1538</v>
       </c>
       <c r="N18" s="7">
-        <v>322282</v>
+        <v>1031908</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2002,171 +1903,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>792</v>
-      </c>
-      <c r="D20" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>746</v>
-      </c>
-      <c r="I20" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>792</v>
-      </c>
-      <c r="D21" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>746</v>
-      </c>
-      <c r="I21" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2179,8 +1924,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE196B7-291E-48A0-A011-34C052DC95BE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F6E846-B9A0-49AA-B464-39656ED61059}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2196,7 +1941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2309,7 +2054,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2324,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2339,7 +2084,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,46 +2093,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>16093</v>
+        <v>97129</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="I5" s="7">
-        <v>16033</v>
+        <v>112501</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="N5" s="7">
-        <v>32126</v>
+        <v>209629</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2399,10 +2144,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>16093</v>
+        <v>97129</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2414,10 +2159,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="I6" s="7">
-        <v>16033</v>
+        <v>112501</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2429,10 +2174,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="N6" s="7">
-        <v>32126</v>
+        <v>209629</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2464,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2479,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2494,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,46 +2248,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D8" s="7">
-        <v>96407</v>
+        <v>128983</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="I8" s="7">
-        <v>81096</v>
+        <v>154556</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="N8" s="7">
-        <v>177503</v>
+        <v>283539</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2554,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D9" s="7">
-        <v>96407</v>
+        <v>128983</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2569,10 +2314,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="I9" s="7">
-        <v>81096</v>
+        <v>154556</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2584,10 +2329,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="N9" s="7">
-        <v>177503</v>
+        <v>283539</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2619,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2634,7 +2379,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2649,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,46 +2403,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7">
-        <v>154556</v>
+        <v>104851</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I11" s="7">
-        <v>128983</v>
+        <v>116784</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="N11" s="7">
-        <v>283539</v>
+        <v>221634</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2709,10 +2454,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D12" s="7">
-        <v>154556</v>
+        <v>104851</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2724,10 +2469,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>128983</v>
+        <v>116784</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2739,10 +2484,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="N12" s="7">
-        <v>283539</v>
+        <v>221634</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2774,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2789,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2804,7 +2549,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,46 +2558,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7">
-        <v>116784</v>
+        <v>146002</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="I14" s="7">
-        <v>104851</v>
+        <v>154941</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>221634</v>
+        <v>300943</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2864,10 +2609,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D15" s="7">
-        <v>116784</v>
+        <v>146002</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2879,10 +2624,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="I15" s="7">
-        <v>104851</v>
+        <v>154941</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2894,10 +2639,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="N15" s="7">
-        <v>221634</v>
+        <v>300943</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2911,7 +2656,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2929,7 +2674,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2944,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2959,7 +2704,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,46 +2713,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>212</v>
+        <v>687</v>
       </c>
       <c r="D17" s="7">
-        <v>154941</v>
+        <v>476965</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>191</v>
+        <v>769</v>
       </c>
       <c r="I17" s="7">
-        <v>146002</v>
+        <v>538781</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>403</v>
+        <v>1456</v>
       </c>
       <c r="N17" s="7">
-        <v>300943</v>
+        <v>1015746</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3019,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>212</v>
+        <v>687</v>
       </c>
       <c r="D18" s="7">
-        <v>154941</v>
+        <v>476965</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3034,10 +2779,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>191</v>
+        <v>769</v>
       </c>
       <c r="I18" s="7">
-        <v>146002</v>
+        <v>538781</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3049,10 +2794,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>403</v>
+        <v>1456</v>
       </c>
       <c r="N18" s="7">
-        <v>300943</v>
+        <v>1015746</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3065,171 +2810,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>769</v>
-      </c>
-      <c r="D20" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>687</v>
-      </c>
-      <c r="I20" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>769</v>
-      </c>
-      <c r="D21" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>687</v>
-      </c>
-      <c r="I21" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3242,8 +2831,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C99FE7C-39D7-4FA7-8B1A-FF1F5143588E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52308662-FD3A-4EAD-B845-B44D62B85028}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3259,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3372,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3387,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3402,7 +2991,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,46 +3000,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>17678</v>
+        <v>90085</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="I5" s="7">
-        <v>14930</v>
+        <v>104674</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="N5" s="7">
-        <v>32608</v>
+        <v>194759</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3462,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D6" s="7">
-        <v>17678</v>
+        <v>90085</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3477,10 +3066,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="I6" s="7">
-        <v>14930</v>
+        <v>104674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3492,10 +3081,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="N6" s="7">
-        <v>32608</v>
+        <v>194759</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3527,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3542,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3557,7 +3146,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,46 +3155,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="D8" s="7">
-        <v>86996</v>
+        <v>151927</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="I8" s="7">
-        <v>75155</v>
+        <v>175303</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="N8" s="7">
-        <v>162151</v>
+        <v>327230</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3617,10 +3206,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="D9" s="7">
-        <v>86996</v>
+        <v>151927</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3632,10 +3221,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="I9" s="7">
-        <v>75155</v>
+        <v>175303</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3647,10 +3236,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="N9" s="7">
-        <v>162151</v>
+        <v>327230</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3682,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3697,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3712,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,46 +3310,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="D11" s="7">
-        <v>175303</v>
+        <v>116552</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="I11" s="7">
-        <v>151927</v>
+        <v>132847</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>507</v>
+        <v>393</v>
       </c>
       <c r="N11" s="7">
-        <v>327230</v>
+        <v>249399</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3772,10 +3361,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="D12" s="7">
-        <v>175303</v>
+        <v>116552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3787,10 +3376,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="I12" s="7">
-        <v>151927</v>
+        <v>132847</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3802,10 +3391,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>507</v>
+        <v>393</v>
       </c>
       <c r="N12" s="7">
-        <v>327230</v>
+        <v>249399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3837,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3852,7 +3441,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3867,7 +3456,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,46 +3465,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>132847</v>
+        <v>166827</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>116552</v>
+        <v>158208</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="N14" s="7">
-        <v>249399</v>
+        <v>325035</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3927,10 +3516,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D15" s="7">
-        <v>132847</v>
+        <v>166827</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3942,10 +3531,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>116552</v>
+        <v>158208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3957,10 +3546,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7">
-        <v>249399</v>
+        <v>325035</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3974,7 +3563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3992,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4007,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4022,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,46 +3620,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>226</v>
+        <v>790</v>
       </c>
       <c r="D17" s="7">
-        <v>158208</v>
+        <v>525390</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>224</v>
+        <v>825</v>
       </c>
       <c r="I17" s="7">
-        <v>166827</v>
+        <v>571033</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>450</v>
+        <v>1615</v>
       </c>
       <c r="N17" s="7">
-        <v>325035</v>
+        <v>1096423</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4082,10 +3671,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>226</v>
+        <v>790</v>
       </c>
       <c r="D18" s="7">
-        <v>158208</v>
+        <v>525390</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4097,10 +3686,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>224</v>
+        <v>825</v>
       </c>
       <c r="I18" s="7">
-        <v>166827</v>
+        <v>571033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4112,10 +3701,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>450</v>
+        <v>1615</v>
       </c>
       <c r="N18" s="7">
-        <v>325035</v>
+        <v>1096423</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4128,171 +3717,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>825</v>
-      </c>
-      <c r="D20" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>790</v>
-      </c>
-      <c r="I20" s="7">
-        <v>525390</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1096423</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>825</v>
-      </c>
-      <c r="D21" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>790</v>
-      </c>
-      <c r="I21" s="7">
-        <v>525390</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1096423</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4305,8 +3738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA8DB4-26A3-430C-822B-4F730BE9E7F4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5088DB1-D7E9-4A6F-9C71-E13924847323}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4322,7 +3755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4423,49 +3856,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7">
-        <v>1979</v>
+        <v>38625</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>1063</v>
+        <v>36683</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="N4" s="7">
-        <v>3043</v>
+        <v>75308</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,49 +3907,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>10719</v>
+        <v>78655</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I5" s="7">
-        <v>15724</v>
+        <v>103729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>26442</v>
+        <v>182385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,10 +3958,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4540,10 +3973,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4555,10 +3988,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4578,49 +4011,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D7" s="7">
-        <v>35318</v>
+        <v>84931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="I7" s="7">
-        <v>40033</v>
+        <v>103688</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="N7" s="7">
-        <v>75351</v>
+        <v>188618</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,49 +4062,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="D8" s="7">
-        <v>79278</v>
+        <v>104582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="I8" s="7">
-        <v>63862</v>
+        <v>151347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
-        <v>208</v>
+        <v>360</v>
       </c>
       <c r="N8" s="7">
-        <v>143139</v>
+        <v>255930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,10 +4113,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>189513</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4695,10 +4128,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4710,10 +4143,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>622</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>444548</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4733,49 +4166,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>77</v>
+      </c>
+      <c r="D10" s="7">
+        <v>85499</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="7">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7">
+        <v>54703</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="7">
-        <v>104963</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="7">
-        <v>121</v>
-      </c>
-      <c r="I10" s="7">
-        <v>85963</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="M10" s="7">
-        <v>262</v>
+        <v>139</v>
       </c>
       <c r="N10" s="7">
-        <v>190926</v>
+        <v>140202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,49 +4217,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="D11" s="7">
-        <v>145223</v>
+        <v>104902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="7">
         <v>163</v>
       </c>
-      <c r="H11" s="7">
-        <v>158</v>
-      </c>
       <c r="I11" s="7">
-        <v>105371</v>
+        <v>130583</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="N11" s="7">
-        <v>250594</v>
+        <v>235485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4850,10 +4283,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>191334</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4865,10 +4298,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>622</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>441520</v>
+        <v>375687</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4888,49 +4321,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="D13" s="7">
-        <v>51013</v>
+        <v>77509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="I13" s="7">
-        <v>64983</v>
+        <v>91715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c r="N13" s="7">
-        <v>115996</v>
+        <v>169224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,49 +4372,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>133</v>
+      </c>
+      <c r="D14" s="7">
+        <v>90453</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="7">
-        <v>122195</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="I14" s="7">
-        <v>103752</v>
+        <v>88580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M14" s="7">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="N14" s="7">
-        <v>225947</v>
+        <v>179033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,10 +4423,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5005,10 +4438,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="I15" s="7">
-        <v>168735</v>
+        <v>180295</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5020,10 +4453,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>341943</v>
+        <v>348257</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5037,55 +4470,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>368</v>
       </c>
       <c r="D16" s="7">
-        <v>90910</v>
+        <v>286563</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>107</v>
+        <v>378</v>
       </c>
       <c r="I16" s="7">
-        <v>81994</v>
+        <v>286789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>228</v>
+        <v>746</v>
       </c>
       <c r="N16" s="7">
-        <v>172904</v>
+        <v>573352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +4527,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>116</v>
+        <v>574</v>
       </c>
       <c r="D17" s="7">
-        <v>83204</v>
+        <v>378593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>133</v>
+        <v>598</v>
       </c>
       <c r="I17" s="7">
-        <v>89949</v>
+        <v>474239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>249</v>
+        <v>1172</v>
       </c>
       <c r="N17" s="7">
-        <v>173153</v>
+        <v>852832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>237</v>
+        <v>942</v>
       </c>
       <c r="D18" s="7">
-        <v>174114</v>
+        <v>665156</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5160,10 +4593,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5175,10 +4608,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>477</v>
+        <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>346057</v>
+        <v>1426184</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5191,171 +4624,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>378</v>
-      </c>
-      <c r="D19" s="7">
-        <v>284183</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="7">
-        <v>368</v>
-      </c>
-      <c r="I19" s="7">
-        <v>274036</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>746</v>
-      </c>
-      <c r="N19" s="7">
-        <v>558220</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>598</v>
-      </c>
-      <c r="D20" s="7">
-        <v>440619</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="7">
-        <v>574</v>
-      </c>
-      <c r="I20" s="7">
-        <v>378657</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1172</v>
-      </c>
-      <c r="N20" s="7">
-        <v>819275</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>942</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652693</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1377495</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
